--- a/프로젝트 내용/[별첨2] 조이름_프로젝트 일정표.xlsx
+++ b/프로젝트 내용/[별첨2] 조이름_프로젝트 일정표.xlsx
@@ -1103,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1362,30 +1362,27 @@
     <xf numFmtId="176" fontId="28" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1429,21 +1426,33 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1751,7 +1760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1766,7 +1775,7 @@
   <dimension ref="A1:DI65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -1785,38 +1794,38 @@
   <sheetData>
     <row r="1" spans="1:113" ht="36" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
@@ -2196,145 +2205,145 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="93" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="93" t="s">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="93" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="93" t="s">
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="94"/>
-      <c r="AJ7" s="94"/>
-      <c r="AK7" s="93" t="s">
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AL7" s="94"/>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="94"/>
-      <c r="AR7" s="93" t="s">
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AS7" s="94"/>
-      <c r="AT7" s="94"/>
-      <c r="AU7" s="94"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="94"/>
-      <c r="AX7" s="94"/>
-      <c r="AY7" s="93" t="s">
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="94"/>
-      <c r="BB7" s="94"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="94"/>
-      <c r="BE7" s="94"/>
-      <c r="BF7" s="93" t="s">
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="89"/>
+      <c r="BC7" s="89"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="BG7" s="94"/>
-      <c r="BH7" s="94"/>
-      <c r="BI7" s="94"/>
-      <c r="BJ7" s="94"/>
-      <c r="BK7" s="94"/>
-      <c r="BL7" s="94"/>
-      <c r="BM7" s="93" t="s">
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="89"/>
+      <c r="BI7" s="89"/>
+      <c r="BJ7" s="89"/>
+      <c r="BK7" s="89"/>
+      <c r="BL7" s="89"/>
+      <c r="BM7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="BN7" s="94"/>
-      <c r="BO7" s="94"/>
-      <c r="BP7" s="94"/>
-      <c r="BQ7" s="94"/>
-      <c r="BR7" s="94"/>
-      <c r="BS7" s="94"/>
-      <c r="BT7" s="93" t="s">
+      <c r="BN7" s="89"/>
+      <c r="BO7" s="89"/>
+      <c r="BP7" s="89"/>
+      <c r="BQ7" s="89"/>
+      <c r="BR7" s="89"/>
+      <c r="BS7" s="89"/>
+      <c r="BT7" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="BU7" s="94"/>
-      <c r="BV7" s="94"/>
-      <c r="BW7" s="94"/>
-      <c r="BX7" s="94"/>
-      <c r="BY7" s="94"/>
-      <c r="BZ7" s="94"/>
-      <c r="CA7" s="93" t="s">
+      <c r="BU7" s="89"/>
+      <c r="BV7" s="89"/>
+      <c r="BW7" s="89"/>
+      <c r="BX7" s="89"/>
+      <c r="BY7" s="89"/>
+      <c r="BZ7" s="89"/>
+      <c r="CA7" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="CB7" s="94"/>
-      <c r="CC7" s="94"/>
-      <c r="CD7" s="94"/>
-      <c r="CE7" s="94"/>
-      <c r="CF7" s="94"/>
-      <c r="CG7" s="94"/>
-      <c r="CH7" s="93" t="s">
+      <c r="CB7" s="89"/>
+      <c r="CC7" s="89"/>
+      <c r="CD7" s="89"/>
+      <c r="CE7" s="89"/>
+      <c r="CF7" s="89"/>
+      <c r="CG7" s="89"/>
+      <c r="CH7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="CI7" s="94"/>
-      <c r="CJ7" s="94"/>
-      <c r="CK7" s="94"/>
-      <c r="CL7" s="94"/>
-      <c r="CM7" s="94"/>
-      <c r="CN7" s="94"/>
-      <c r="CO7" s="93" t="s">
+      <c r="CI7" s="89"/>
+      <c r="CJ7" s="89"/>
+      <c r="CK7" s="89"/>
+      <c r="CL7" s="89"/>
+      <c r="CM7" s="89"/>
+      <c r="CN7" s="89"/>
+      <c r="CO7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="CP7" s="94"/>
-      <c r="CQ7" s="94"/>
-      <c r="CR7" s="94"/>
-      <c r="CS7" s="94"/>
-      <c r="CT7" s="94"/>
-      <c r="CU7" s="94"/>
-      <c r="CV7" s="93" t="s">
+      <c r="CP7" s="89"/>
+      <c r="CQ7" s="89"/>
+      <c r="CR7" s="89"/>
+      <c r="CS7" s="89"/>
+      <c r="CT7" s="89"/>
+      <c r="CU7" s="89"/>
+      <c r="CV7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="CW7" s="94"/>
-      <c r="CX7" s="94"/>
-      <c r="CY7" s="94"/>
-      <c r="CZ7" s="94"/>
-      <c r="DA7" s="94"/>
-      <c r="DB7" s="94"/>
-      <c r="DC7" s="93" t="s">
+      <c r="CW7" s="89"/>
+      <c r="CX7" s="89"/>
+      <c r="CY7" s="89"/>
+      <c r="CZ7" s="89"/>
+      <c r="DA7" s="89"/>
+      <c r="DB7" s="89"/>
+      <c r="DC7" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="DD7" s="94"/>
-      <c r="DE7" s="94"/>
-      <c r="DF7" s="94"/>
-      <c r="DG7" s="94"/>
-      <c r="DH7" s="94"/>
-      <c r="DI7" s="94"/>
+      <c r="DD7" s="89"/>
+      <c r="DE7" s="89"/>
+      <c r="DF7" s="89"/>
+      <c r="DG7" s="89"/>
+      <c r="DH7" s="89"/>
+      <c r="DI7" s="89"/>
     </row>
     <row r="8" spans="1:113" ht="21" customHeight="1">
       <c r="A8" s="12"/>
@@ -2665,19 +2674,19 @@
     </row>
     <row r="9" spans="1:113" ht="21" customHeight="1">
       <c r="A9" s="18"/>
-      <c r="B9" s="123">
+      <c r="B9" s="94">
         <v>1</v>
       </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="114" t="s">
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="115"/>
+      <c r="H9" s="114"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -2691,14 +2700,14 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
+      <c r="V9" s="125"/>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
       <c r="AB9" s="21"/>
-      <c r="AC9" s="22"/>
+      <c r="AC9" s="125"/>
       <c r="AD9" s="21"/>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
@@ -2786,15 +2795,15 @@
     </row>
     <row r="10" spans="1:113" ht="21" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="120"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="114" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="115"/>
+      <c r="H10" s="114"/>
       <c r="I10" s="24"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -2903,15 +2912,15 @@
     </row>
     <row r="11" spans="1:113" ht="21" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="120"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="109" t="s">
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="110"/>
+      <c r="H11" s="109"/>
       <c r="I11" s="29"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -2924,12 +2933,12 @@
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="31"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127"/>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
       <c r="AC11" s="31"/>
@@ -3020,16 +3029,16 @@
     </row>
     <row r="12" spans="1:113" ht="21" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="122">
+      <c r="B12" s="93">
         <v>2</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="116" t="s">
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="115" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="64" t="s">
@@ -3143,12 +3152,12 @@
     </row>
     <row r="13" spans="1:113" ht="21" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="120"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="117"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="116"/>
       <c r="H13" s="33" t="s">
         <v>30</v>
       </c>
@@ -3170,8 +3179,8 @@
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="25"/>
       <c r="AE13" s="25"/>
@@ -3260,12 +3269,12 @@
     </row>
     <row r="14" spans="1:113" ht="21" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="120"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="117"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="116"/>
       <c r="H14" s="37" t="s">
         <v>31</v>
       </c>
@@ -3283,13 +3292,13 @@
       <c r="T14" s="81"/>
       <c r="U14" s="81"/>
       <c r="V14" s="83"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="26"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="83"/>
       <c r="AD14" s="25"/>
       <c r="AE14" s="25"/>
       <c r="AF14" s="25"/>
@@ -3377,12 +3386,12 @@
     </row>
     <row r="15" spans="1:113" ht="21" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="120"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="117"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="37"/>
       <c r="I15" s="36"/>
       <c r="J15" s="25"/>
@@ -3492,12 +3501,12 @@
     </row>
     <row r="16" spans="1:113" ht="21" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="120"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="118"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="117"/>
       <c r="H16" s="65"/>
       <c r="I16" s="36"/>
       <c r="J16" s="25"/>
@@ -3607,11 +3616,11 @@
     </row>
     <row r="17" spans="1:113" ht="21" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="120"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="36"/>
@@ -3722,11 +3731,11 @@
     </row>
     <row r="18" spans="1:113" ht="21" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="120"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="36"/>
@@ -3837,11 +3846,11 @@
     </row>
     <row r="19" spans="1:113" ht="21" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="120"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="36"/>
@@ -3952,11 +3961,11 @@
     </row>
     <row r="20" spans="1:113" ht="21" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="120"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="36"/>
@@ -4067,11 +4076,11 @@
     </row>
     <row r="21" spans="1:113" ht="21" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="120"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="36"/>
@@ -4182,11 +4191,11 @@
     </row>
     <row r="22" spans="1:113" ht="21" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="120"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="36"/>
@@ -4297,11 +4306,11 @@
     </row>
     <row r="23" spans="1:113" ht="21" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="120"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="36"/>
@@ -4412,11 +4421,11 @@
     </row>
     <row r="24" spans="1:113" ht="21" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="120"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="36"/>
@@ -4527,11 +4536,11 @@
     </row>
     <row r="25" spans="1:113" ht="21" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="120"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="36"/>
@@ -4642,11 +4651,11 @@
     </row>
     <row r="26" spans="1:113" ht="21" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="120"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="36"/>
@@ -4757,11 +4766,11 @@
     </row>
     <row r="27" spans="1:113" ht="21" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="120"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="36"/>
@@ -4872,11 +4881,11 @@
     </row>
     <row r="28" spans="1:113" ht="21" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="120"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="36"/>
@@ -4987,11 +4996,11 @@
     </row>
     <row r="29" spans="1:113" ht="21" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="120"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="36"/>
@@ -5102,11 +5111,11 @@
     </row>
     <row r="30" spans="1:113" ht="21" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="120"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="36"/>
@@ -5217,11 +5226,11 @@
     </row>
     <row r="31" spans="1:113" ht="21" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="120"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="36"/>
@@ -5332,11 +5341,11 @@
     </row>
     <row r="32" spans="1:113" ht="21" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="120"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="36"/>
@@ -5447,11 +5456,11 @@
     </row>
     <row r="33" spans="1:113" ht="21" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="120"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="36"/>
@@ -5562,11 +5571,11 @@
     </row>
     <row r="34" spans="1:113" ht="21" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="120"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="36"/>
@@ -5677,11 +5686,11 @@
     </row>
     <row r="35" spans="1:113" ht="21" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="120"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="36"/>
@@ -5792,11 +5801,11 @@
     </row>
     <row r="36" spans="1:113" ht="21" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="120"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="36"/>
@@ -5907,11 +5916,11 @@
     </row>
     <row r="37" spans="1:113" ht="21" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="120"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="36"/>
@@ -6022,11 +6031,11 @@
     </row>
     <row r="38" spans="1:113" ht="21" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="120"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="36"/>
@@ -6137,11 +6146,11 @@
     </row>
     <row r="39" spans="1:113" ht="21" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="120"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="38"/>
@@ -6252,11 +6261,11 @@
     </row>
     <row r="40" spans="1:113" ht="21" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="120"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="39"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
       <c r="I40" s="41"/>
@@ -6367,15 +6376,15 @@
     </row>
     <row r="41" spans="1:113" ht="21" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="124">
+      <c r="B41" s="95">
         <v>3</v>
       </c>
       <c r="C41" s="19"/>
-      <c r="D41" s="106" t="s">
+      <c r="D41" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
       <c r="G41" s="67"/>
       <c r="H41" s="67"/>
       <c r="I41" s="45"/>
@@ -6486,11 +6495,11 @@
     </row>
     <row r="42" spans="1:113" ht="21" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="124"/>
+      <c r="B42" s="95"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
       <c r="G42" s="67"/>
       <c r="H42" s="67"/>
       <c r="I42" s="45"/>
@@ -6601,11 +6610,11 @@
     </row>
     <row r="43" spans="1:113" ht="21" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="124"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
       <c r="G43" s="67"/>
       <c r="H43" s="67"/>
       <c r="I43" s="45"/>
@@ -6716,11 +6725,11 @@
     </row>
     <row r="44" spans="1:113" ht="21" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="124"/>
+      <c r="B44" s="95"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
       <c r="G44" s="67"/>
       <c r="H44" s="67"/>
       <c r="I44" s="45"/>
@@ -6831,11 +6840,11 @@
     </row>
     <row r="45" spans="1:113" ht="21" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="124"/>
+      <c r="B45" s="95"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
       <c r="G45" s="66"/>
       <c r="H45" s="66"/>
       <c r="I45" s="45"/>
@@ -6946,11 +6955,11 @@
     </row>
     <row r="46" spans="1:113" ht="21" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="124"/>
+      <c r="B46" s="95"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
       <c r="G46" s="66"/>
       <c r="H46" s="66"/>
       <c r="I46" s="45"/>
@@ -7061,11 +7070,11 @@
     </row>
     <row r="47" spans="1:113" ht="21" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="124"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
       <c r="G47" s="66"/>
       <c r="H47" s="66"/>
       <c r="I47" s="45"/>
@@ -7176,11 +7185,11 @@
     </row>
     <row r="48" spans="1:113" ht="21" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="120"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
       <c r="G48" s="67"/>
       <c r="H48" s="67"/>
       <c r="I48" s="46"/>
@@ -7291,11 +7300,11 @@
     </row>
     <row r="49" spans="1:113" ht="21" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="120"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
       <c r="G49" s="67"/>
       <c r="H49" s="67"/>
       <c r="I49" s="46"/>
@@ -7406,11 +7415,11 @@
     </row>
     <row r="50" spans="1:113" ht="21" customHeight="1" thickBot="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="120"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="47"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
       <c r="G50" s="68"/>
       <c r="H50" s="68"/>
       <c r="I50" s="48"/>
@@ -7521,15 +7530,15 @@
     </row>
     <row r="51" spans="1:113" ht="21" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="121">
+      <c r="B51" s="92">
         <v>4</v>
       </c>
       <c r="C51" s="19"/>
-      <c r="D51" s="100" t="s">
+      <c r="D51" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
       <c r="G51" s="70"/>
       <c r="H51" s="70"/>
       <c r="I51" s="45"/>
@@ -7640,11 +7649,11 @@
     </row>
     <row r="52" spans="1:113" ht="21" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="121"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
       <c r="G52" s="70"/>
       <c r="H52" s="70"/>
       <c r="I52" s="45"/>
@@ -7755,11 +7764,11 @@
     </row>
     <row r="53" spans="1:113" ht="21" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="121"/>
+      <c r="B53" s="92"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
       <c r="G53" s="70"/>
       <c r="H53" s="70"/>
       <c r="I53" s="45"/>
@@ -7870,11 +7879,11 @@
     </row>
     <row r="54" spans="1:113" ht="21" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="120"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
       <c r="G54" s="70"/>
       <c r="H54" s="70"/>
       <c r="I54" s="46"/>
@@ -7985,11 +7994,11 @@
     </row>
     <row r="55" spans="1:113" ht="21" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="120"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="19"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
       <c r="G55" s="70"/>
       <c r="H55" s="70"/>
       <c r="I55" s="46"/>
@@ -8100,11 +8109,11 @@
     </row>
     <row r="56" spans="1:113" ht="21" customHeight="1" thickBot="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="120"/>
+      <c r="B56" s="91"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
       <c r="G56" s="69"/>
       <c r="H56" s="69"/>
       <c r="I56" s="53"/>
@@ -8215,15 +8224,15 @@
     </row>
     <row r="57" spans="1:113" ht="21" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="119">
+      <c r="B57" s="90">
         <v>5</v>
       </c>
       <c r="C57" s="19"/>
-      <c r="D57" s="97" t="s">
+      <c r="D57" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
       <c r="G57" s="71"/>
       <c r="H57" s="71"/>
       <c r="I57" s="45"/>
@@ -8334,11 +8343,11 @@
     </row>
     <row r="58" spans="1:113" ht="21" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="120"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
       <c r="G58" s="71"/>
       <c r="H58" s="71"/>
       <c r="I58" s="46"/>
@@ -8449,11 +8458,11 @@
     </row>
     <row r="59" spans="1:113" ht="21" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="120"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="19"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
       <c r="G59" s="71"/>
       <c r="H59" s="71"/>
       <c r="I59" s="46"/>
@@ -8972,6 +8981,28 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D57:F59"/>
+    <mergeCell ref="D51:F56"/>
+    <mergeCell ref="D12:F40"/>
+    <mergeCell ref="D41:F50"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D9:F11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B12:B40"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B41:B50"/>
     <mergeCell ref="DC7:DI7"/>
     <mergeCell ref="BT7:BZ7"/>
     <mergeCell ref="AK7:AQ7"/>
@@ -8983,28 +9014,6 @@
     <mergeCell ref="CH7:CN7"/>
     <mergeCell ref="CO7:CU7"/>
     <mergeCell ref="CV7:DB7"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B12:B40"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="D57:F59"/>
-    <mergeCell ref="D51:F56"/>
-    <mergeCell ref="D12:F40"/>
-    <mergeCell ref="D41:F50"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D9:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
-    <mergeCell ref="AD7:AJ7"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
